--- a/pred_ohlcv/54_21/2019-10-27 HDAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 HDAC ohlcv.xlsx
@@ -1276,7 +1276,7 @@
         <v>-412553.3422</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-412553.3422</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-462553.3422</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-461373.5358</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-460193.7294</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-510194.4811</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-897884.3530000001</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-897884.3530000001</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-1353671.8357</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-1353671.8357</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-1353671.8357</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-1349287.4897</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-1348914.4897</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-1336014.4897</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-1335925.4897</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-1348159.0348</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-1348159.0348</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-1348159.0348</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-1348159.0348</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-1348149.0348</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-1349609.9969</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-1349609.9969</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-1349609.9969</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-1349599.9969</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-1349600.9969</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-1372277.4102</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-1372247.4102</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-1372446.4102</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-1372446.4102</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-1372446.4102</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-1372446.4102</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-1372446.4102</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-1372446.4102</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-1372446.4102</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-1372446.4102</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-1372446.4102</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-1372446.4102</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-1372411.7532</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-1372458.4102</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-1372458.4102</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-1372458.4102</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-1372458.4102</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-1372458.4102</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-1372069.3991</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-1372099.3991</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-1372099.3991</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-1372099.3991</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-1372099.3991</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-1372099.3991</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-1372099.3991</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-1372099.3991</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-27 HDAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 HDAC ohlcv.xlsx
@@ -1276,7 +1276,7 @@
         <v>-412553.3422</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-412553.3422</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-462553.3422</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-461373.5358</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-460193.7294</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-510194.4811</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-897884.3530000001</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-897884.3530000001</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-1349287.4897</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-1348914.4897</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-1336014.4897</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-1348159.0348</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-1348159.0348</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-1348159.0348</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-1348159.0348</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-1348149.0348</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-1349609.9969</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-1349609.9969</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-1349609.9969</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-1349599.9969</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-1349600.9969</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-1372247.4102</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-1372446.4102</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-1372446.4102</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-1372446.4102</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-1372446.4102</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-1372446.4102</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-1372446.4102</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-1372446.4102</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-1372446.4102</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-1372446.4102</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-1372446.4102</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-1372411.7532</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-1372458.4102</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-1372458.4102</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-1372458.4102</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-1372458.4102</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-1372458.4102</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-1372069.3991</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-1372099.3991</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-1372099.3991</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-1372099.3991</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-1372099.3991</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-1372099.3991</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
